--- a/eulachon_troubleshooting/EulachonGSI_M2PRM_M2PM9_GTscore_CAT_sidebyside/concatenate_check.xlsx
+++ b/eulachon_troubleshooting/EulachonGSI_M2PRM_M2PM9_GTscore_CAT_sidebyside/concatenate_check.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Madison.Betts\Desktop\eulachonGSI\eulachonGSI\eulachon_troubleshooting\EulachonGSI_M2PRM_M2PM9_GTscore_CAT_sidebyside\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE1FEB05-1041-4A97-BEAC-54ADE53828D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5911A0-EE31-4369-AEDE-8CB6B95473D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{87C2FF4F-27D3-42F7-AD24-7DE7A41B80C5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{87C2FF4F-27D3-42F7-AD24-7DE7A41B80C5}"/>
   </bookViews>
   <sheets>
     <sheet name="CAT_EH_individualsum" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="500">
   <si>
     <t>Sample</t>
   </si>
@@ -1244,6 +1244,300 @@
   </si>
   <si>
     <t>#_off_OG</t>
+  </si>
+  <si>
+    <t>52507-385</t>
+  </si>
+  <si>
+    <t>52507-392</t>
+  </si>
+  <si>
+    <t>52507-397</t>
+  </si>
+  <si>
+    <t>52507-401</t>
+  </si>
+  <si>
+    <t>52507-406</t>
+  </si>
+  <si>
+    <t>52507-407</t>
+  </si>
+  <si>
+    <t>52507-411</t>
+  </si>
+  <si>
+    <t>52507-413</t>
+  </si>
+  <si>
+    <t>52507-414</t>
+  </si>
+  <si>
+    <t>52507-415</t>
+  </si>
+  <si>
+    <t>52507-418</t>
+  </si>
+  <si>
+    <t>52507-422</t>
+  </si>
+  <si>
+    <t>52507-425</t>
+  </si>
+  <si>
+    <t>52507-429</t>
+  </si>
+  <si>
+    <t>52507-431</t>
+  </si>
+  <si>
+    <t>52507-440</t>
+  </si>
+  <si>
+    <t>52507-442</t>
+  </si>
+  <si>
+    <t>52507-445</t>
+  </si>
+  <si>
+    <t>52507-465</t>
+  </si>
+  <si>
+    <t>52507-467</t>
+  </si>
+  <si>
+    <t>52507-472</t>
+  </si>
+  <si>
+    <t>52507-473</t>
+  </si>
+  <si>
+    <t>52507-477</t>
+  </si>
+  <si>
+    <t>52507-479</t>
+  </si>
+  <si>
+    <t>52507-484</t>
+  </si>
+  <si>
+    <t>52507-485</t>
+  </si>
+  <si>
+    <t>52507-184</t>
+  </si>
+  <si>
+    <t>52507-212</t>
+  </si>
+  <si>
+    <t>52507-240</t>
+  </si>
+  <si>
+    <t>52507-271</t>
+  </si>
+  <si>
+    <t>52507-351</t>
+  </si>
+  <si>
+    <t>52507-356</t>
+  </si>
+  <si>
+    <t>52507-362</t>
+  </si>
+  <si>
+    <t> 52508-002</t>
+  </si>
+  <si>
+    <t> 52508-004</t>
+  </si>
+  <si>
+    <t> 52508-011</t>
+  </si>
+  <si>
+    <t> 52508-014</t>
+  </si>
+  <si>
+    <t> 52508-017</t>
+  </si>
+  <si>
+    <t> 52508-019</t>
+  </si>
+  <si>
+    <t> 52508-022</t>
+  </si>
+  <si>
+    <t> 52508-024</t>
+  </si>
+  <si>
+    <t> 52508-025</t>
+  </si>
+  <si>
+    <t> 52508-027</t>
+  </si>
+  <si>
+    <t> 52508-031</t>
+  </si>
+  <si>
+    <t> 52508-033</t>
+  </si>
+  <si>
+    <t> 52508-036</t>
+  </si>
+  <si>
+    <t> 52508-039</t>
+  </si>
+  <si>
+    <t> 52508-040</t>
+  </si>
+  <si>
+    <t> 52508-043</t>
+  </si>
+  <si>
+    <t> 52508-046</t>
+  </si>
+  <si>
+    <t> 52508-047</t>
+  </si>
+  <si>
+    <t> 52508-052</t>
+  </si>
+  <si>
+    <t> 52508-056</t>
+  </si>
+  <si>
+    <t> 52508-062</t>
+  </si>
+  <si>
+    <t> 52508-064</t>
+  </si>
+  <si>
+    <t> 52508-065</t>
+  </si>
+  <si>
+    <t> 52508-069</t>
+  </si>
+  <si>
+    <t> 52508-070</t>
+  </si>
+  <si>
+    <t> 52508-078</t>
+  </si>
+  <si>
+    <t> 52508-079</t>
+  </si>
+  <si>
+    <t> 52508-086</t>
+  </si>
+  <si>
+    <t> 52508-087</t>
+  </si>
+  <si>
+    <t> 52508-088</t>
+  </si>
+  <si>
+    <t> 52508-090</t>
+  </si>
+  <si>
+    <t> 52508-091</t>
+  </si>
+  <si>
+    <t> 52508-101</t>
+  </si>
+  <si>
+    <t> 52508-105</t>
+  </si>
+  <si>
+    <t> 52508-106</t>
+  </si>
+  <si>
+    <t> 52508-111</t>
+  </si>
+  <si>
+    <t> 52508-114</t>
+  </si>
+  <si>
+    <t> 52508-115</t>
+  </si>
+  <si>
+    <t> 52508-117</t>
+  </si>
+  <si>
+    <t> 52508-119</t>
+  </si>
+  <si>
+    <t> 52508-127</t>
+  </si>
+  <si>
+    <t> 52508-129</t>
+  </si>
+  <si>
+    <t> 52508-131</t>
+  </si>
+  <si>
+    <t> 52508-134</t>
+  </si>
+  <si>
+    <t> 52508-135</t>
+  </si>
+  <si>
+    <t> 52508-139</t>
+  </si>
+  <si>
+    <t> 52508-143</t>
+  </si>
+  <si>
+    <t> 52508-145</t>
+  </si>
+  <si>
+    <t> 52508-149</t>
+  </si>
+  <si>
+    <t> 52508-156</t>
+  </si>
+  <si>
+    <t> 52508-157</t>
+  </si>
+  <si>
+    <t> 52508-158</t>
+  </si>
+  <si>
+    <t> 52508-167</t>
+  </si>
+  <si>
+    <t> 52508-168</t>
+  </si>
+  <si>
+    <t> 52508-173</t>
+  </si>
+  <si>
+    <t> 52508-174</t>
+  </si>
+  <si>
+    <t> 52508-176</t>
+  </si>
+  <si>
+    <t> 52508-179</t>
+  </si>
+  <si>
+    <t> 52508-182</t>
+  </si>
+  <si>
+    <t> 52508-183</t>
+  </si>
+  <si>
+    <t> 52508-189</t>
+  </si>
+  <si>
+    <t> 52508-201</t>
+  </si>
+  <si>
+    <t>lab_sampleID</t>
+  </si>
+  <si>
+    <t>genotypingrate_OG</t>
+  </si>
+  <si>
+    <t>genotypingrate_EH</t>
   </si>
 </sst>
 </file>
@@ -1319,17 +1613,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1357,56 +1641,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1737,7 +1971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8013C9FC-E4B1-49F1-94E7-C2E850F28BAB}">
   <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
@@ -5402,7 +5636,7 @@
   <dimension ref="A1:L96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16394,10 +16628,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5153382F-B9C7-49FA-B1AC-5D4CE4AA174E}">
-  <dimension ref="A1:J96"/>
+  <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R38" sqref="R38"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16412,9 +16646,11 @@
     <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.7265625" style="2"/>
+    <col min="11" max="11" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>395</v>
       </c>
@@ -16445,8 +16681,17 @@
       <c r="J1" s="5" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="str">
         <f>CAT_EH_individualsum!B2</f>
         <v>CAT_52507_184_S123_L001_R1_001</v>
@@ -16487,8 +16732,19 @@
         <f>I2-G2</f>
         <v>150894</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2" t="s">
+        <v>402</v>
+      </c>
+      <c r="L2">
+        <f>OG_individualsum!J2</f>
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="M2">
+        <f>EH_individualsum!J2</f>
+        <v>0.38400000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="str">
         <f>CAT_EH_individualsum!B3</f>
         <v>CAT_52507_212_S124_L001_R1_001</v>
@@ -16529,8 +16785,19 @@
         <f t="shared" ref="J3:J66" si="3">I3-G3</f>
         <v>785120</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K3" t="s">
+        <v>403</v>
+      </c>
+      <c r="L3">
+        <f>OG_individualsum!J3</f>
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="M3">
+        <f>EH_individualsum!J3</f>
+        <v>0.55200000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="str">
         <f>CAT_EH_individualsum!B4</f>
         <v>CAT_52507_240_S125_L001_R1_001</v>
@@ -16571,8 +16838,19 @@
         <f t="shared" si="3"/>
         <v>52691</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4" t="s">
+        <v>404</v>
+      </c>
+      <c r="L4">
+        <f>OG_individualsum!J4</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M4">
+        <f>EH_individualsum!J4</f>
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="str">
         <f>CAT_EH_individualsum!B5</f>
         <v>CAT_52507_271_S126_L001_R1_001</v>
@@ -16613,8 +16891,19 @@
         <f t="shared" si="3"/>
         <v>393030</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5" t="s">
+        <v>405</v>
+      </c>
+      <c r="L5">
+        <f>OG_individualsum!J5</f>
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="M5">
+        <f>EH_individualsum!J5</f>
+        <v>0.38600000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
         <f>CAT_EH_individualsum!B6</f>
         <v>CAT_52507_351_S127_L001_R1_001</v>
@@ -16655,8 +16944,19 @@
         <f t="shared" si="3"/>
         <v>134342</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K6" t="s">
+        <v>406</v>
+      </c>
+      <c r="L6">
+        <f>OG_individualsum!J6</f>
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="M6">
+        <f>EH_individualsum!J6</f>
+        <v>0.36199999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="str">
         <f>CAT_EH_individualsum!B7</f>
         <v>CAT_52507_356_S128_L001_R1_001</v>
@@ -16697,8 +16997,19 @@
         <f t="shared" si="3"/>
         <v>251322</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K7" t="s">
+        <v>407</v>
+      </c>
+      <c r="L7">
+        <f>OG_individualsum!J7</f>
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="M7">
+        <f>EH_individualsum!J7</f>
+        <v>0.504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
         <f>CAT_EH_individualsum!B8</f>
         <v>CAT_52507_362_S129_L001_R1_001</v>
@@ -16739,8 +17050,19 @@
         <f t="shared" si="3"/>
         <v>66172</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K8" t="s">
+        <v>408</v>
+      </c>
+      <c r="L8">
+        <f>OG_individualsum!J8</f>
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="M8">
+        <f>EH_individualsum!J8</f>
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="str">
         <f>CAT_EH_individualsum!B9</f>
         <v>CAT_52507_385_S97_L001_R1_001</v>
@@ -16781,8 +17103,19 @@
         <f t="shared" si="3"/>
         <v>25048</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K9" t="s">
+        <v>409</v>
+      </c>
+      <c r="L9">
+        <f>OG_individualsum!J9</f>
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="M9">
+        <f>EH_individualsum!J9</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
         <f>CAT_EH_individualsum!B10</f>
         <v>CAT_52507_392_S98_L001_R1_001</v>
@@ -16823,8 +17156,19 @@
         <f t="shared" si="3"/>
         <v>21665</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K10" t="s">
+        <v>410</v>
+      </c>
+      <c r="L10">
+        <f>OG_individualsum!J10</f>
+        <v>0.442</v>
+      </c>
+      <c r="M10">
+        <f>EH_individualsum!J10</f>
+        <v>0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
         <f>CAT_EH_individualsum!B11</f>
         <v>CAT_52507_397_S99_L001_R1_001</v>
@@ -16865,8 +17209,19 @@
         <f t="shared" si="3"/>
         <v>34801</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K11" t="s">
+        <v>411</v>
+      </c>
+      <c r="L11">
+        <f>OG_individualsum!J11</f>
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="M11">
+        <f>EH_individualsum!J11</f>
+        <v>0.312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="str">
         <f>CAT_EH_individualsum!B12</f>
         <v>CAT_52507_401_S100_L001_R1_001</v>
@@ -16907,8 +17262,19 @@
         <f t="shared" si="3"/>
         <v>-1656</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K12" t="s">
+        <v>412</v>
+      </c>
+      <c r="L12">
+        <f>OG_individualsum!J12</f>
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="M12">
+        <f>EH_individualsum!J12</f>
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
         <f>CAT_EH_individualsum!B13</f>
         <v>CAT_52507_406_S101_L001_R1_001</v>
@@ -16949,8 +17315,19 @@
         <f t="shared" si="3"/>
         <v>25848</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K13" t="s">
+        <v>413</v>
+      </c>
+      <c r="L13">
+        <f>OG_individualsum!J13</f>
+        <v>0.66</v>
+      </c>
+      <c r="M13">
+        <f>EH_individualsum!J13</f>
+        <v>0.318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="str">
         <f>CAT_EH_individualsum!B14</f>
         <v>CAT_52507_407_S102_L001_R1_001</v>
@@ -16991,8 +17368,19 @@
         <f t="shared" si="3"/>
         <v>-24571</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K14" t="s">
+        <v>414</v>
+      </c>
+      <c r="L14">
+        <f>OG_individualsum!J14</f>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="M14">
+        <f>EH_individualsum!J14</f>
+        <v>0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f>CAT_EH_individualsum!B15</f>
         <v>CAT_52507_411_S103_L001_R1_001</v>
@@ -17033,8 +17421,19 @@
         <f t="shared" si="3"/>
         <v>34406</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K15" t="s">
+        <v>415</v>
+      </c>
+      <c r="L15">
+        <f>OG_individualsum!J15</f>
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="M15">
+        <f>EH_individualsum!J15</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="str">
         <f>CAT_EH_individualsum!B16</f>
         <v>CAT_52507_413_S104_L001_R1_001</v>
@@ -17075,8 +17474,19 @@
         <f t="shared" si="3"/>
         <v>17343</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K16" t="s">
+        <v>416</v>
+      </c>
+      <c r="L16">
+        <f>OG_individualsum!J16</f>
+        <v>0.67</v>
+      </c>
+      <c r="M16">
+        <f>EH_individualsum!J16</f>
+        <v>0.32200000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="str">
         <f>CAT_EH_individualsum!B17</f>
         <v>CAT_52507_414_S105_L001_R1_001</v>
@@ -17117,8 +17527,19 @@
         <f t="shared" si="3"/>
         <v>47627</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K17" t="s">
+        <v>417</v>
+      </c>
+      <c r="L17">
+        <f>OG_individualsum!J17</f>
+        <v>0.124</v>
+      </c>
+      <c r="M17">
+        <f>EH_individualsum!J17</f>
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="str">
         <f>CAT_EH_individualsum!B18</f>
         <v>CAT_52507_415_S106_L001_R1_001</v>
@@ -17159,8 +17580,19 @@
         <f t="shared" si="3"/>
         <v>93482</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K18" t="s">
+        <v>418</v>
+      </c>
+      <c r="L18">
+        <f>OG_individualsum!J18</f>
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="M18">
+        <f>EH_individualsum!J18</f>
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="str">
         <f>CAT_EH_individualsum!B19</f>
         <v>CAT_52507_418_S107_L001_R1_001</v>
@@ -17201,8 +17633,19 @@
         <f t="shared" si="3"/>
         <v>28743</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K19" t="s">
+        <v>419</v>
+      </c>
+      <c r="L19">
+        <f>OG_individualsum!J19</f>
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="M19">
+        <f>EH_individualsum!J19</f>
+        <v>0.442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="str">
         <f>CAT_EH_individualsum!B20</f>
         <v>CAT_52507_422_S108_L001_R1_001</v>
@@ -17243,8 +17686,19 @@
         <f t="shared" si="3"/>
         <v>48572</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K20" t="s">
+        <v>420</v>
+      </c>
+      <c r="L20">
+        <f>OG_individualsum!J20</f>
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="M20">
+        <f>EH_individualsum!J20</f>
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="str">
         <f>CAT_EH_individualsum!B21</f>
         <v>CAT_52507_425_S109_L001_R1_001</v>
@@ -17285,8 +17739,19 @@
         <f t="shared" si="3"/>
         <v>29615</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K21" t="s">
+        <v>421</v>
+      </c>
+      <c r="L21">
+        <f>OG_individualsum!J21</f>
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="M21">
+        <f>EH_individualsum!J21</f>
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="str">
         <f>CAT_EH_individualsum!B22</f>
         <v>CAT_52507_429_S110_L001_R1_001</v>
@@ -17327,8 +17792,19 @@
         <f t="shared" si="3"/>
         <v>56001</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K22" t="s">
+        <v>422</v>
+      </c>
+      <c r="L22">
+        <f>OG_individualsum!J22</f>
+        <v>0.436</v>
+      </c>
+      <c r="M22">
+        <f>EH_individualsum!J22</f>
+        <v>0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="str">
         <f>CAT_EH_individualsum!B23</f>
         <v>CAT_52507_431_S111_L001_R1_001</v>
@@ -17369,8 +17845,19 @@
         <f t="shared" si="3"/>
         <v>47980</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K23" t="s">
+        <v>423</v>
+      </c>
+      <c r="L23">
+        <f>OG_individualsum!J23</f>
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="M23">
+        <f>EH_individualsum!J23</f>
+        <v>0.33600000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="str">
         <f>CAT_EH_individualsum!B24</f>
         <v>CAT_52507_440_S112_L001_R1_001</v>
@@ -17411,8 +17898,19 @@
         <f t="shared" si="3"/>
         <v>102564</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K24" t="s">
+        <v>424</v>
+      </c>
+      <c r="L24">
+        <f>OG_individualsum!J24</f>
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="M24">
+        <f>EH_individualsum!J24</f>
+        <v>0.19800000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="str">
         <f>CAT_EH_individualsum!B25</f>
         <v>CAT_52507_442_S113_L001_R1_001</v>
@@ -17453,8 +17951,19 @@
         <f t="shared" si="3"/>
         <v>119971</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K25" t="s">
+        <v>425</v>
+      </c>
+      <c r="L25">
+        <f>OG_individualsum!J25</f>
+        <v>0.746</v>
+      </c>
+      <c r="M25">
+        <f>EH_individualsum!J25</f>
+        <v>0.27800000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="str">
         <f>CAT_EH_individualsum!B26</f>
         <v>CAT_52507_445_S114_L001_R1_001</v>
@@ -17495,8 +18004,19 @@
         <f t="shared" si="3"/>
         <v>62465</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K26" t="s">
+        <v>426</v>
+      </c>
+      <c r="L26">
+        <f>OG_individualsum!J26</f>
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="M26">
+        <f>EH_individualsum!J26</f>
+        <v>0.33600000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="str">
         <f>CAT_EH_individualsum!B27</f>
         <v>CAT_52507_465_S115_L001_R1_001</v>
@@ -17537,8 +18057,19 @@
         <f t="shared" si="3"/>
         <v>91267</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K27" t="s">
+        <v>427</v>
+      </c>
+      <c r="L27">
+        <f>OG_individualsum!J27</f>
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="M27">
+        <f>EH_individualsum!J27</f>
+        <v>0.38400000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="str">
         <f>CAT_EH_individualsum!B28</f>
         <v>CAT_52507_467_S116_L001_R1_001</v>
@@ -17579,8 +18110,19 @@
         <f t="shared" si="3"/>
         <v>77532</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K28" t="s">
+        <v>428</v>
+      </c>
+      <c r="L28">
+        <f>OG_individualsum!J28</f>
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="M28">
+        <f>EH_individualsum!J28</f>
+        <v>0.32600000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="str">
         <f>CAT_EH_individualsum!B29</f>
         <v>CAT_52507_472_S117_L001_R1_001</v>
@@ -17621,8 +18163,19 @@
         <f t="shared" si="3"/>
         <v>62318</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K29" t="s">
+        <v>429</v>
+      </c>
+      <c r="L29">
+        <f>OG_individualsum!J29</f>
+        <v>0.4</v>
+      </c>
+      <c r="M29">
+        <f>EH_individualsum!J29</f>
+        <v>0.158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="str">
         <f>CAT_EH_individualsum!B30</f>
         <v>CAT_52507_473_S118_L001_R1_001</v>
@@ -17663,8 +18216,19 @@
         <f t="shared" si="3"/>
         <v>148958</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K30" t="s">
+        <v>430</v>
+      </c>
+      <c r="L30">
+        <f>OG_individualsum!J30</f>
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="M30">
+        <f>EH_individualsum!J30</f>
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="str">
         <f>CAT_EH_individualsum!B31</f>
         <v>CAT_52507_477_S119_L001_R1_001</v>
@@ -17705,8 +18269,19 @@
         <f t="shared" si="3"/>
         <v>39462</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K31" t="s">
+        <v>431</v>
+      </c>
+      <c r="L31">
+        <f>OG_individualsum!J31</f>
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="M31">
+        <f>EH_individualsum!J31</f>
+        <v>0.19400000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="str">
         <f>CAT_EH_individualsum!B32</f>
         <v>CAT_52507_479_S120_L001_R1_001</v>
@@ -17747,8 +18322,19 @@
         <f t="shared" si="3"/>
         <v>49535</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K32" t="s">
+        <v>432</v>
+      </c>
+      <c r="L32">
+        <f>OG_individualsum!J32</f>
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="M32">
+        <f>EH_individualsum!J32</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="str">
         <f>CAT_EH_individualsum!B33</f>
         <v>CAT_52507_484_S121_L001_R1_001</v>
@@ -17789,8 +18375,19 @@
         <f t="shared" si="3"/>
         <v>87261</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K33" t="s">
+        <v>433</v>
+      </c>
+      <c r="L33">
+        <f>OG_individualsum!J33</f>
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="M33">
+        <f>EH_individualsum!J33</f>
+        <v>0.33400000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="str">
         <f>CAT_EH_individualsum!B34</f>
         <v>CAT_52507_485_S122_L001_R1_001</v>
@@ -17831,8 +18428,19 @@
         <f t="shared" si="3"/>
         <v>64569</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K34" t="s">
+        <v>434</v>
+      </c>
+      <c r="L34">
+        <f>OG_individualsum!J34</f>
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="M34">
+        <f>EH_individualsum!J34</f>
+        <v>0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="str">
         <f>CAT_EH_individualsum!B35</f>
         <v>CAT_52508_002_S130_L001_R1_001</v>
@@ -17873,8 +18481,19 @@
         <f t="shared" si="3"/>
         <v>63256</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K35" t="s">
+        <v>435</v>
+      </c>
+      <c r="L35">
+        <f>OG_individualsum!J35</f>
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="M35">
+        <f>EH_individualsum!J35</f>
+        <v>0.25600000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" t="str">
         <f>CAT_EH_individualsum!B36</f>
         <v>CAT_52508_004_S131_L001_R1_001</v>
@@ -17915,8 +18534,19 @@
         <f t="shared" si="3"/>
         <v>58130</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K36" t="s">
+        <v>436</v>
+      </c>
+      <c r="L36">
+        <f>OG_individualsum!J36</f>
+        <v>0.128</v>
+      </c>
+      <c r="M36">
+        <f>EH_individualsum!J36</f>
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" t="str">
         <f>CAT_EH_individualsum!B37</f>
         <v>CAT_52508_011_S132_L001_R1_001</v>
@@ -17957,8 +18587,19 @@
         <f t="shared" si="3"/>
         <v>813263</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K37" t="s">
+        <v>437</v>
+      </c>
+      <c r="L37">
+        <f>OG_individualsum!J37</f>
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="M37">
+        <f>EH_individualsum!J37</f>
+        <v>0.45800000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" t="str">
         <f>CAT_EH_individualsum!B38</f>
         <v>CAT_52508_014_S133_L001_R1_001</v>
@@ -17999,8 +18640,19 @@
         <f t="shared" si="3"/>
         <v>46282</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K38" t="s">
+        <v>438</v>
+      </c>
+      <c r="L38">
+        <f>OG_individualsum!J38</f>
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="M38">
+        <f>EH_individualsum!J38</f>
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" t="str">
         <f>CAT_EH_individualsum!B39</f>
         <v>CAT_52508_017_S134_L001_R1_001</v>
@@ -18041,8 +18693,19 @@
         <f t="shared" si="3"/>
         <v>361334</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K39" t="s">
+        <v>439</v>
+      </c>
+      <c r="L39">
+        <f>OG_individualsum!J39</f>
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="M39">
+        <f>EH_individualsum!J39</f>
+        <v>0.41599999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" t="str">
         <f>CAT_EH_individualsum!B40</f>
         <v>CAT_52508_019_S135_L001_R1_001</v>
@@ -18083,8 +18746,19 @@
         <f t="shared" si="3"/>
         <v>41990</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K40" t="s">
+        <v>440</v>
+      </c>
+      <c r="L40">
+        <f>OG_individualsum!J40</f>
+        <v>0.31</v>
+      </c>
+      <c r="M40">
+        <f>EH_individualsum!J40</f>
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" t="str">
         <f>CAT_EH_individualsum!B41</f>
         <v>CAT_52508_022_S136_L001_R1_001</v>
@@ -18125,8 +18799,19 @@
         <f t="shared" si="3"/>
         <v>61383</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K41" t="s">
+        <v>441</v>
+      </c>
+      <c r="L41">
+        <f>OG_individualsum!J41</f>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="M41">
+        <f>EH_individualsum!J41</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" t="str">
         <f>CAT_EH_individualsum!B42</f>
         <v>CAT_52508_024_S137_L001_R1_001</v>
@@ -18167,8 +18852,19 @@
         <f t="shared" si="3"/>
         <v>42946</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K42" t="s">
+        <v>442</v>
+      </c>
+      <c r="L42">
+        <f>OG_individualsum!J42</f>
+        <v>0.184</v>
+      </c>
+      <c r="M42">
+        <f>EH_individualsum!J42</f>
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" t="str">
         <f>CAT_EH_individualsum!B43</f>
         <v>CAT_52508_025_S138_L001_R1_001</v>
@@ -18209,8 +18905,19 @@
         <f t="shared" si="3"/>
         <v>52339</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K43" t="s">
+        <v>443</v>
+      </c>
+      <c r="L43">
+        <f>OG_individualsum!J43</f>
+        <v>0.15</v>
+      </c>
+      <c r="M43">
+        <f>EH_individualsum!J43</f>
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" t="str">
         <f>CAT_EH_individualsum!B44</f>
         <v>CAT_52508_027_S139_L001_R1_001</v>
@@ -18251,8 +18958,19 @@
         <f t="shared" si="3"/>
         <v>78735</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K44" t="s">
+        <v>444</v>
+      </c>
+      <c r="L44">
+        <f>OG_individualsum!J44</f>
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="M44">
+        <f>EH_individualsum!J44</f>
+        <v>0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" t="str">
         <f>CAT_EH_individualsum!B45</f>
         <v>CAT_52508_031_S140_L001_R1_001</v>
@@ -18293,8 +19011,19 @@
         <f t="shared" si="3"/>
         <v>68418</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K45" t="s">
+        <v>445</v>
+      </c>
+      <c r="L45">
+        <f>OG_individualsum!J45</f>
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="M45">
+        <f>EH_individualsum!J45</f>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" t="str">
         <f>CAT_EH_individualsum!B46</f>
         <v>CAT_52508_033_S141_L001_R1_001</v>
@@ -18335,8 +19064,19 @@
         <f t="shared" si="3"/>
         <v>11007</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K46" t="s">
+        <v>446</v>
+      </c>
+      <c r="L46">
+        <f>OG_individualsum!J46</f>
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="M46">
+        <f>EH_individualsum!J46</f>
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" t="str">
         <f>CAT_EH_individualsum!B47</f>
         <v>CAT_52508_036_S142_L001_R1_001</v>
@@ -18377,8 +19117,19 @@
         <f t="shared" si="3"/>
         <v>111978</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K47" t="s">
+        <v>447</v>
+      </c>
+      <c r="L47">
+        <f>OG_individualsum!J47</f>
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="M47">
+        <f>EH_individualsum!J47</f>
+        <v>0.33800000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" t="str">
         <f>CAT_EH_individualsum!B48</f>
         <v>CAT_52508_039_S143_L001_R1_001</v>
@@ -18419,8 +19170,19 @@
         <f t="shared" si="3"/>
         <v>37991</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K48" t="s">
+        <v>448</v>
+      </c>
+      <c r="L48">
+        <f>OG_individualsum!J48</f>
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="M48">
+        <f>EH_individualsum!J48</f>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" t="str">
         <f>CAT_EH_individualsum!B49</f>
         <v>CAT_52508_040_S144_L001_R1_001</v>
@@ -18461,8 +19223,19 @@
         <f t="shared" si="3"/>
         <v>45023</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K49" t="s">
+        <v>449</v>
+      </c>
+      <c r="L49">
+        <f>OG_individualsum!J49</f>
+        <v>0.46</v>
+      </c>
+      <c r="M49">
+        <f>EH_individualsum!J49</f>
+        <v>0.20599999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" t="str">
         <f>CAT_EH_individualsum!B50</f>
         <v>CAT_52508_043_S145_L001_R1_001</v>
@@ -18503,8 +19276,19 @@
         <f t="shared" si="3"/>
         <v>43986</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K50" t="s">
+        <v>450</v>
+      </c>
+      <c r="L50">
+        <f>OG_individualsum!J50</f>
+        <v>0.64</v>
+      </c>
+      <c r="M50">
+        <f>EH_individualsum!J50</f>
+        <v>0.21199999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" t="str">
         <f>CAT_EH_individualsum!B51</f>
         <v>CAT_52508_046_S146_L001_R1_001</v>
@@ -18545,8 +19329,19 @@
         <f t="shared" si="3"/>
         <v>51623</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K51" t="s">
+        <v>451</v>
+      </c>
+      <c r="L51">
+        <f>OG_individualsum!J51</f>
+        <v>0.47</v>
+      </c>
+      <c r="M51">
+        <f>EH_individualsum!J51</f>
+        <v>0.246</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" t="str">
         <f>CAT_EH_individualsum!B52</f>
         <v>CAT_52508_047_S147_L001_R1_001</v>
@@ -18587,8 +19382,19 @@
         <f t="shared" si="3"/>
         <v>77131</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K52" t="s">
+        <v>452</v>
+      </c>
+      <c r="L52">
+        <f>OG_individualsum!J52</f>
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="M52">
+        <f>EH_individualsum!J52</f>
+        <v>0.16600000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" t="str">
         <f>CAT_EH_individualsum!B53</f>
         <v>CAT_52508_052_S148_L001_R1_001</v>
@@ -18629,8 +19435,19 @@
         <f t="shared" si="3"/>
         <v>97062</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K53" t="s">
+        <v>453</v>
+      </c>
+      <c r="L53">
+        <f>OG_individualsum!J53</f>
+        <v>0.79</v>
+      </c>
+      <c r="M53">
+        <f>EH_individualsum!J53</f>
+        <v>0.434</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" t="str">
         <f>CAT_EH_individualsum!B54</f>
         <v>CAT_52508_056_S149_L001_R1_001</v>
@@ -18671,8 +19488,19 @@
         <f t="shared" si="3"/>
         <v>69662</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K54" t="s">
+        <v>454</v>
+      </c>
+      <c r="L54">
+        <f>OG_individualsum!J54</f>
+        <v>0.374</v>
+      </c>
+      <c r="M54">
+        <f>EH_individualsum!J54</f>
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" t="str">
         <f>CAT_EH_individualsum!B55</f>
         <v>CAT_52508_062_S150_L001_R1_001</v>
@@ -18713,8 +19541,19 @@
         <f t="shared" si="3"/>
         <v>42231</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K55" t="s">
+        <v>455</v>
+      </c>
+      <c r="L55">
+        <f>OG_individualsum!J55</f>
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="M55">
+        <f>EH_individualsum!J55</f>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" t="str">
         <f>CAT_EH_individualsum!B56</f>
         <v>CAT_52508_064_S151_L001_R1_001</v>
@@ -18755,8 +19594,19 @@
         <f t="shared" si="3"/>
         <v>33146</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K56" t="s">
+        <v>456</v>
+      </c>
+      <c r="L56">
+        <f>OG_individualsum!J56</f>
+        <v>0.248</v>
+      </c>
+      <c r="M56">
+        <f>EH_individualsum!J56</f>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" t="str">
         <f>CAT_EH_individualsum!B57</f>
         <v>CAT_52508_065_S152_L001_R1_001</v>
@@ -18797,8 +19647,19 @@
         <f t="shared" si="3"/>
         <v>70369</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K57" t="s">
+        <v>457</v>
+      </c>
+      <c r="L57">
+        <f>OG_individualsum!J57</f>
+        <v>0.746</v>
+      </c>
+      <c r="M57">
+        <f>EH_individualsum!J57</f>
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" t="str">
         <f>CAT_EH_individualsum!B58</f>
         <v>CAT_52508_069_S153_L001_R1_001</v>
@@ -18839,8 +19700,19 @@
         <f t="shared" si="3"/>
         <v>78084</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K58" t="s">
+        <v>458</v>
+      </c>
+      <c r="L58">
+        <f>OG_individualsum!J58</f>
+        <v>0.79</v>
+      </c>
+      <c r="M58">
+        <f>EH_individualsum!J58</f>
+        <v>0.33400000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" t="str">
         <f>CAT_EH_individualsum!B59</f>
         <v>CAT_52508_070_S154_L001_R1_001</v>
@@ -18881,8 +19753,19 @@
         <f t="shared" si="3"/>
         <v>44099</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K59" t="s">
+        <v>459</v>
+      </c>
+      <c r="L59">
+        <f>OG_individualsum!J59</f>
+        <v>0.52</v>
+      </c>
+      <c r="M59">
+        <f>EH_individualsum!J59</f>
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" t="str">
         <f>CAT_EH_individualsum!B60</f>
         <v>CAT_52508_078_S155_L001_R1_001</v>
@@ -18923,8 +19806,19 @@
         <f t="shared" si="3"/>
         <v>27907</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K60" t="s">
+        <v>460</v>
+      </c>
+      <c r="L60">
+        <f>OG_individualsum!J60</f>
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="M60">
+        <f>EH_individualsum!J60</f>
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" t="str">
         <f>CAT_EH_individualsum!B61</f>
         <v>CAT_52508_079_S156_L001_R1_001</v>
@@ -18965,8 +19859,19 @@
         <f t="shared" si="3"/>
         <v>214872</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K61" t="s">
+        <v>461</v>
+      </c>
+      <c r="L61">
+        <f>OG_individualsum!J61</f>
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="M61">
+        <f>EH_individualsum!J61</f>
+        <v>0.39400000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" t="str">
         <f>CAT_EH_individualsum!B62</f>
         <v>CAT_52508_086_S157_L001_R1_001</v>
@@ -19007,8 +19912,19 @@
         <f t="shared" si="3"/>
         <v>39919</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K62" t="s">
+        <v>462</v>
+      </c>
+      <c r="L62">
+        <f>OG_individualsum!J62</f>
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="M62">
+        <f>EH_individualsum!J62</f>
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" t="str">
         <f>CAT_EH_individualsum!B63</f>
         <v>CAT_52508_087_S158_L001_R1_001</v>
@@ -19049,8 +19965,19 @@
         <f t="shared" si="3"/>
         <v>55003</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K63" t="s">
+        <v>463</v>
+      </c>
+      <c r="L63">
+        <f>OG_individualsum!J63</f>
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="M63">
+        <f>EH_individualsum!J63</f>
+        <v>0.248</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" t="str">
         <f>CAT_EH_individualsum!B64</f>
         <v>CAT_52508_088_S159_L001_R1_001</v>
@@ -19091,8 +20018,19 @@
         <f t="shared" si="3"/>
         <v>154923</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K64" t="s">
+        <v>464</v>
+      </c>
+      <c r="L64">
+        <f>OG_individualsum!J64</f>
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="M64">
+        <f>EH_individualsum!J64</f>
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" t="str">
         <f>CAT_EH_individualsum!B65</f>
         <v>CAT_52508_090_S160_L001_R1_001</v>
@@ -19133,8 +20071,19 @@
         <f t="shared" si="3"/>
         <v>91629</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K65" t="s">
+        <v>465</v>
+      </c>
+      <c r="L65">
+        <f>OG_individualsum!J65</f>
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="M65">
+        <f>EH_individualsum!J65</f>
+        <v>0.316</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" t="str">
         <f>CAT_EH_individualsum!B66</f>
         <v>CAT_52508_091_S161_L001_R1_001</v>
@@ -19175,8 +20124,19 @@
         <f t="shared" si="3"/>
         <v>106693</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K66" t="s">
+        <v>466</v>
+      </c>
+      <c r="L66">
+        <f>OG_individualsum!J66</f>
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="M66">
+        <f>EH_individualsum!J66</f>
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" t="str">
         <f>CAT_EH_individualsum!B67</f>
         <v>CAT_52508_101_S162_L001_R1_001</v>
@@ -19217,8 +20177,19 @@
         <f t="shared" ref="J67:J96" si="7">I67-G67</f>
         <v>29057</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K67" t="s">
+        <v>467</v>
+      </c>
+      <c r="L67">
+        <f>OG_individualsum!J67</f>
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="M67">
+        <f>EH_individualsum!J67</f>
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" t="str">
         <f>CAT_EH_individualsum!B68</f>
         <v>CAT_52508_105_S163_L001_R1_001</v>
@@ -19259,8 +20230,19 @@
         <f t="shared" si="7"/>
         <v>63894</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K68" t="s">
+        <v>468</v>
+      </c>
+      <c r="L68">
+        <f>OG_individualsum!J68</f>
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="M68">
+        <f>EH_individualsum!J68</f>
+        <v>0.36799999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" t="str">
         <f>CAT_EH_individualsum!B69</f>
         <v>CAT_52508_106_S164_L001_R1_001</v>
@@ -19301,8 +20283,19 @@
         <f t="shared" si="7"/>
         <v>51159</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K69" t="s">
+        <v>469</v>
+      </c>
+      <c r="L69">
+        <f>OG_individualsum!J69</f>
+        <v>0.75</v>
+      </c>
+      <c r="M69">
+        <f>EH_individualsum!J69</f>
+        <v>0.314</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" t="str">
         <f>CAT_EH_individualsum!B70</f>
         <v>CAT_52508_111_S165_L001_R1_001</v>
@@ -19343,8 +20336,19 @@
         <f t="shared" si="7"/>
         <v>16034</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K70" t="s">
+        <v>470</v>
+      </c>
+      <c r="L70">
+        <f>OG_individualsum!J70</f>
+        <v>0.15</v>
+      </c>
+      <c r="M70">
+        <f>EH_individualsum!J70</f>
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" t="str">
         <f>CAT_EH_individualsum!B71</f>
         <v>CAT_52508_114_S166_L001_R1_001</v>
@@ -19385,8 +20389,19 @@
         <f t="shared" si="7"/>
         <v>52836</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K71" t="s">
+        <v>471</v>
+      </c>
+      <c r="L71">
+        <f>OG_individualsum!J71</f>
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="M71">
+        <f>EH_individualsum!J71</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" t="str">
         <f>CAT_EH_individualsum!B72</f>
         <v>CAT_52508_115_S167_L001_R1_001</v>
@@ -19427,8 +20442,19 @@
         <f t="shared" si="7"/>
         <v>38288</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K72" t="s">
+        <v>472</v>
+      </c>
+      <c r="L72">
+        <f>OG_individualsum!J72</f>
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="M72">
+        <f>EH_individualsum!J72</f>
+        <v>0.186</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" t="str">
         <f>CAT_EH_individualsum!B73</f>
         <v>CAT_52508_117_S168_L001_R1_001</v>
@@ -19469,8 +20495,19 @@
         <f t="shared" si="7"/>
         <v>101334</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K73" t="s">
+        <v>473</v>
+      </c>
+      <c r="L73">
+        <f>OG_individualsum!J73</f>
+        <v>0.122</v>
+      </c>
+      <c r="M73">
+        <f>EH_individualsum!J73</f>
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" t="str">
         <f>CAT_EH_individualsum!B74</f>
         <v>CAT_52508_119_S169_L001_R1_001</v>
@@ -19511,8 +20548,19 @@
         <f t="shared" si="7"/>
         <v>66149</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K74" t="s">
+        <v>474</v>
+      </c>
+      <c r="L74">
+        <f>OG_individualsum!J74</f>
+        <v>0.71</v>
+      </c>
+      <c r="M74">
+        <f>EH_individualsum!J74</f>
+        <v>0.28599999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" t="str">
         <f>CAT_EH_individualsum!B75</f>
         <v>CAT_52508_127_S170_L001_R1_001</v>
@@ -19553,8 +20601,19 @@
         <f t="shared" si="7"/>
         <v>419117</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K75" t="s">
+        <v>475</v>
+      </c>
+      <c r="L75">
+        <f>OG_individualsum!J75</f>
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="M75">
+        <f>EH_individualsum!J75</f>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" t="str">
         <f>CAT_EH_individualsum!B76</f>
         <v>CAT_52508_129_S171_L001_R1_001</v>
@@ -19595,8 +20654,19 @@
         <f t="shared" si="7"/>
         <v>102507</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K76" t="s">
+        <v>476</v>
+      </c>
+      <c r="L76">
+        <f>OG_individualsum!J76</f>
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="M76">
+        <f>EH_individualsum!J76</f>
+        <v>0.16400000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" t="str">
         <f>CAT_EH_individualsum!B77</f>
         <v>CAT_52508_131_S172_L001_R1_001</v>
@@ -19637,8 +20707,19 @@
         <f t="shared" si="7"/>
         <v>80043</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K77" t="s">
+        <v>477</v>
+      </c>
+      <c r="L77">
+        <f>OG_individualsum!J77</f>
+        <v>0.54</v>
+      </c>
+      <c r="M77">
+        <f>EH_individualsum!J77</f>
+        <v>0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" t="str">
         <f>CAT_EH_individualsum!B78</f>
         <v>CAT_52508_134_S173_L001_R1_001</v>
@@ -19679,8 +20760,19 @@
         <f t="shared" si="7"/>
         <v>36903</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K78" t="s">
+        <v>478</v>
+      </c>
+      <c r="L78">
+        <f>OG_individualsum!J78</f>
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="M78">
+        <f>EH_individualsum!J78</f>
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" t="str">
         <f>CAT_EH_individualsum!B79</f>
         <v>CAT_52508_135_S174_L001_R1_001</v>
@@ -19721,8 +20813,19 @@
         <f t="shared" si="7"/>
         <v>36808</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K79" t="s">
+        <v>479</v>
+      </c>
+      <c r="L79">
+        <f>OG_individualsum!J79</f>
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="M79">
+        <f>EH_individualsum!J79</f>
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" t="str">
         <f>CAT_EH_individualsum!B80</f>
         <v>CAT_52508_139_S175_L001_R1_001</v>
@@ -19763,8 +20866,19 @@
         <f t="shared" si="7"/>
         <v>68937</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K80" t="s">
+        <v>480</v>
+      </c>
+      <c r="L80">
+        <f>OG_individualsum!J80</f>
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="M80">
+        <f>EH_individualsum!J80</f>
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" t="str">
         <f>CAT_EH_individualsum!B81</f>
         <v>CAT_52508_143_S176_L001_R1_001</v>
@@ -19805,8 +20919,19 @@
         <f t="shared" si="7"/>
         <v>58021</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K81" t="s">
+        <v>481</v>
+      </c>
+      <c r="L81">
+        <f>OG_individualsum!J81</f>
+        <v>0.48</v>
+      </c>
+      <c r="M81">
+        <f>EH_individualsum!J81</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" t="str">
         <f>CAT_EH_individualsum!B82</f>
         <v>CAT_52508_145_S177_L001_R1_001</v>
@@ -19847,8 +20972,19 @@
         <f t="shared" si="7"/>
         <v>-112256</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K82" t="s">
+        <v>482</v>
+      </c>
+      <c r="L82">
+        <f>OG_individualsum!J82</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M82">
+        <f>EH_individualsum!J82</f>
+        <v>0.64600000000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" t="str">
         <f>CAT_EH_individualsum!B83</f>
         <v>CAT_52508_149_S178_L001_R1_001</v>
@@ -19889,8 +21025,19 @@
         <f t="shared" si="7"/>
         <v>170394</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K83" t="s">
+        <v>483</v>
+      </c>
+      <c r="L83">
+        <f>OG_individualsum!J83</f>
+        <v>0.83</v>
+      </c>
+      <c r="M83">
+        <f>EH_individualsum!J83</f>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" t="str">
         <f>CAT_EH_individualsum!B84</f>
         <v>CAT_52508_156_S179_L001_R1_001</v>
@@ -19931,8 +21078,19 @@
         <f t="shared" si="7"/>
         <v>76167</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K84" t="s">
+        <v>484</v>
+      </c>
+      <c r="L84">
+        <f>OG_individualsum!J84</f>
+        <v>0.79</v>
+      </c>
+      <c r="M84">
+        <f>EH_individualsum!J84</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" t="str">
         <f>CAT_EH_individualsum!B85</f>
         <v>CAT_52508_157_S180_L001_R1_001</v>
@@ -19973,8 +21131,19 @@
         <f t="shared" si="7"/>
         <v>37208</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K85" t="s">
+        <v>485</v>
+      </c>
+      <c r="L85">
+        <f>OG_individualsum!J85</f>
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="M85">
+        <f>EH_individualsum!J85</f>
+        <v>0.436</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" t="str">
         <f>CAT_EH_individualsum!B86</f>
         <v>CAT_52508_158_S181_L001_R1_001</v>
@@ -20015,8 +21184,19 @@
         <f t="shared" si="7"/>
         <v>43010</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K86" t="s">
+        <v>486</v>
+      </c>
+      <c r="L86">
+        <f>OG_individualsum!J86</f>
+        <v>0.44</v>
+      </c>
+      <c r="M86">
+        <f>EH_individualsum!J86</f>
+        <v>0.21199999999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" t="str">
         <f>CAT_EH_individualsum!B87</f>
         <v>CAT_52508_167_S182_L001_R1_001</v>
@@ -20057,8 +21237,19 @@
         <f t="shared" si="7"/>
         <v>56977</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K87" t="s">
+        <v>487</v>
+      </c>
+      <c r="L87">
+        <f>OG_individualsum!J87</f>
+        <v>2E-3</v>
+      </c>
+      <c r="M87">
+        <f>EH_individualsum!J87</f>
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" t="str">
         <f>CAT_EH_individualsum!B88</f>
         <v>CAT_52508_168_S183_L001_R1_001</v>
@@ -20099,8 +21290,19 @@
         <f t="shared" si="7"/>
         <v>33579</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K88" t="s">
+        <v>488</v>
+      </c>
+      <c r="L88">
+        <f>OG_individualsum!J88</f>
+        <v>0.126</v>
+      </c>
+      <c r="M88">
+        <f>EH_individualsum!J88</f>
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" t="str">
         <f>CAT_EH_individualsum!B89</f>
         <v>CAT_52508_173_S184_L001_R1_001</v>
@@ -20141,8 +21343,19 @@
         <f t="shared" si="7"/>
         <v>32116</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K89" t="s">
+        <v>489</v>
+      </c>
+      <c r="L89">
+        <f>OG_individualsum!J89</f>
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="M89">
+        <f>EH_individualsum!J89</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" t="str">
         <f>CAT_EH_individualsum!B90</f>
         <v>CAT_52508_174_S185_L001_R1_001</v>
@@ -20183,8 +21396,19 @@
         <f t="shared" si="7"/>
         <v>208724</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K90" t="s">
+        <v>490</v>
+      </c>
+      <c r="L90">
+        <f>OG_individualsum!J90</f>
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="M90">
+        <f>EH_individualsum!J90</f>
+        <v>0.374</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" t="str">
         <f>CAT_EH_individualsum!B91</f>
         <v>CAT_52508_176_S186_L001_R1_001</v>
@@ -20225,8 +21449,19 @@
         <f t="shared" si="7"/>
         <v>29095</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K91" t="s">
+        <v>491</v>
+      </c>
+      <c r="L91">
+        <f>OG_individualsum!J91</f>
+        <v>0.628</v>
+      </c>
+      <c r="M91">
+        <f>EH_individualsum!J91</f>
+        <v>0.30199999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" t="str">
         <f>CAT_EH_individualsum!B92</f>
         <v>CAT_52508_179_S187_L001_R1_001</v>
@@ -20267,8 +21502,19 @@
         <f t="shared" si="7"/>
         <v>28785</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K92" t="s">
+        <v>492</v>
+      </c>
+      <c r="L92">
+        <f>OG_individualsum!J92</f>
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="M92">
+        <f>EH_individualsum!J92</f>
+        <v>0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" t="str">
         <f>CAT_EH_individualsum!B93</f>
         <v>CAT_52508_182_S188_L001_R1_001</v>
@@ -20309,8 +21555,19 @@
         <f t="shared" si="7"/>
         <v>-21513</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K93" t="s">
+        <v>493</v>
+      </c>
+      <c r="L93">
+        <f>OG_individualsum!J93</f>
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="M93">
+        <f>EH_individualsum!J93</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" t="str">
         <f>CAT_EH_individualsum!B94</f>
         <v>CAT_52508_183_S189_L001_R1_001</v>
@@ -20351,8 +21608,19 @@
         <f t="shared" si="7"/>
         <v>36798</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K94" t="s">
+        <v>494</v>
+      </c>
+      <c r="L94">
+        <f>OG_individualsum!J94</f>
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="M94">
+        <f>EH_individualsum!J94</f>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" t="str">
         <f>CAT_EH_individualsum!B95</f>
         <v>CAT_52508_189_S190_L001_R1_001</v>
@@ -20393,8 +21661,19 @@
         <f t="shared" si="7"/>
         <v>6335</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K95" t="s">
+        <v>495</v>
+      </c>
+      <c r="L95">
+        <f>OG_individualsum!J95</f>
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="M95">
+        <f>EH_individualsum!J95</f>
+        <v>0.39600000000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" t="str">
         <f>CAT_EH_individualsum!B96</f>
         <v>CAT_52508_201_S191_L001_R1_001</v>
@@ -20435,21 +21714,32 @@
         <f t="shared" si="7"/>
         <v>3660</v>
       </c>
+      <c r="K96" t="s">
+        <v>496</v>
+      </c>
+      <c r="L96">
+        <f>OG_individualsum!J96</f>
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="M96">
+        <f>EH_individualsum!J96</f>
+        <v>7.1999999999999995E-2</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
